--- a/AnalysisPAPEV.xlsx
+++ b/AnalysisPAPEV.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einra\OneDrive\Desktop\Master Final\DataForAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einra\OneDrive\Desktop\Master_Final\DataForAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B78B1CC-9623-487E-A5AB-98FD15FECA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F721554-12B6-4779-8D11-43A36C59A90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="4455" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAPEV9" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <si>
     <t>Subject</t>
   </si>
@@ -52,15 +64,6 @@
     <t>FFT Mean VL</t>
   </si>
   <si>
-    <t>FFT Median RF</t>
-  </si>
-  <si>
-    <t>FFT Median VM</t>
-  </si>
-  <si>
-    <t>FFT Median VL</t>
-  </si>
-  <si>
     <t>t1</t>
   </si>
   <si>
@@ -73,16 +76,13 @@
     <t>t4</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>t5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,16 +916,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:M56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,22 +956,13 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>164.0223939</v>
@@ -997,22 +988,13 @@
       <c r="J2">
         <v>84.004298899999995</v>
       </c>
-      <c r="K2">
-        <v>82.479508199999998</v>
-      </c>
-      <c r="L2">
-        <v>79.149590160000002</v>
-      </c>
-      <c r="M2">
-        <v>67.110655739999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>212.4635859</v>
@@ -1038,22 +1020,13 @@
       <c r="J3">
         <v>63.76372293</v>
       </c>
-      <c r="K3">
-        <v>76.511094110000002</v>
-      </c>
-      <c r="L3">
-        <v>58.530986990000002</v>
-      </c>
-      <c r="M3">
-        <v>56.04437643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>174.73857939999999</v>
@@ -1079,22 +1052,13 @@
       <c r="J4">
         <v>74.610358079999997</v>
       </c>
-      <c r="K4">
-        <v>62.795585920000001</v>
-      </c>
-      <c r="L4">
-        <v>76.458223860000004</v>
-      </c>
-      <c r="M4">
-        <v>60.956384659999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>185.0972879</v>
@@ -1120,63 +1084,45 @@
       <c r="J5">
         <v>71.56559111</v>
       </c>
-      <c r="K5">
-        <v>70.068746689999998</v>
-      </c>
-      <c r="L5">
-        <v>65.573770490000001</v>
-      </c>
-      <c r="M5">
-        <v>57.112638820000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>212.4635859</v>
+        <v>132.75931</v>
       </c>
       <c r="D6">
-        <v>405.04309009999997</v>
+        <v>571.9058</v>
       </c>
       <c r="E6">
-        <v>1.61249573</v>
+        <v>2.8665419999999999</v>
       </c>
       <c r="F6">
-        <v>1.8356520700000001</v>
+        <v>3.1026600000000002</v>
       </c>
       <c r="G6">
-        <v>1.4116666600000001</v>
+        <v>3.1727729999999998</v>
       </c>
       <c r="H6">
-        <v>90.789199060000001</v>
+        <v>82.849199999999996</v>
       </c>
       <c r="I6">
-        <v>75.88359165</v>
+        <v>78.839399999999998</v>
       </c>
       <c r="J6">
-        <v>63.76372293</v>
-      </c>
-      <c r="K6">
-        <v>76.511094110000002</v>
-      </c>
-      <c r="L6">
-        <v>58.530986990000002</v>
-      </c>
-      <c r="M6">
-        <v>56.04437643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>69.237499999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>140.60261990000001</v>
@@ -1202,22 +1148,13 @@
       <c r="J7">
         <v>81.617562179999993</v>
       </c>
-      <c r="K7">
-        <v>79.682365829999995</v>
-      </c>
-      <c r="L7">
-        <v>58.050383349999997</v>
-      </c>
-      <c r="M7">
-        <v>67.360350490000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>105.92361940000001</v>
@@ -1243,22 +1180,13 @@
       <c r="J8">
         <v>77.885902920000007</v>
       </c>
-      <c r="K8">
-        <v>57.991921519999998</v>
-      </c>
-      <c r="L8">
-        <v>71.840738599999995</v>
-      </c>
-      <c r="M8">
-        <v>66.070398150000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>140.8075709</v>
@@ -1284,22 +1212,13 @@
       <c r="J9">
         <v>63.719439540000003</v>
       </c>
-      <c r="K9">
-        <v>60.107197550000002</v>
-      </c>
-      <c r="L9">
-        <v>62.97856049</v>
-      </c>
-      <c r="M9">
-        <v>56.852986219999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>135.41225159999999</v>
@@ -1325,22 +1244,13 @@
       <c r="J10">
         <v>57.996788690000002</v>
       </c>
-      <c r="K10">
-        <v>57.768924300000002</v>
-      </c>
-      <c r="L10">
-        <v>53.215708589999998</v>
-      </c>
-      <c r="M10">
-        <v>51.5082527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>112.4034992</v>
@@ -1366,22 +1276,13 @@
       <c r="J11">
         <v>64.432112180000004</v>
       </c>
-      <c r="K11">
-        <v>62.919030429999999</v>
-      </c>
-      <c r="L11">
-        <v>62.40330067</v>
-      </c>
-      <c r="M11">
-        <v>56.214543579999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>154.07094739999999</v>
@@ -1407,22 +1308,13 @@
       <c r="J12">
         <v>57.347349770000001</v>
       </c>
-      <c r="K12">
-        <v>59.227921729999998</v>
-      </c>
-      <c r="L12">
-        <v>48.387096769999999</v>
-      </c>
-      <c r="M12">
-        <v>50.502379689999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>162.39216930000001</v>
@@ -1448,22 +1340,13 @@
       <c r="J13">
         <v>83.364308930000007</v>
       </c>
-      <c r="K13">
-        <v>81.745235710000003</v>
-      </c>
-      <c r="L13">
-        <v>88.014042130000007</v>
-      </c>
-      <c r="M13">
-        <v>69.709127379999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>213.26512779999999</v>
@@ -1489,22 +1372,13 @@
       <c r="J14">
         <v>65.813195390000004</v>
       </c>
-      <c r="K14">
-        <v>72.81334536</v>
-      </c>
-      <c r="L14">
-        <v>56.80793508</v>
-      </c>
-      <c r="M14">
-        <v>56.80793508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>166.9962883</v>
@@ -1530,22 +1404,13 @@
       <c r="J15">
         <v>73.038763160000002</v>
       </c>
-      <c r="K15">
-        <v>61.643835619999997</v>
-      </c>
-      <c r="L15">
-        <v>71.004566209999993</v>
-      </c>
-      <c r="M15">
-        <v>62.785388130000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>171.4404198</v>
@@ -1571,63 +1436,45 @@
       <c r="J16">
         <v>66.408205229999993</v>
       </c>
-      <c r="K16">
-        <v>68.493150679999999</v>
-      </c>
-      <c r="L16">
-        <v>62.785388130000001</v>
-      </c>
-      <c r="M16">
-        <v>56.506849320000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>213.26512779999999</v>
+        <v>106.16804</v>
       </c>
       <c r="D17">
-        <v>483.6275564</v>
+        <v>715.32790999999997</v>
       </c>
       <c r="E17">
-        <v>1.5380735999999999</v>
+        <v>2.8588399999999998</v>
       </c>
       <c r="F17">
-        <v>1.731312</v>
+        <v>3.1006</v>
       </c>
       <c r="G17">
-        <v>1.28445148</v>
+        <v>3.1993200000000002</v>
       </c>
       <c r="H17">
-        <v>87.266596739999997</v>
+        <v>76.352689999999996</v>
       </c>
       <c r="I17">
-        <v>75.718771020000005</v>
+        <v>74.52534</v>
       </c>
       <c r="J17">
-        <v>65.813195390000004</v>
-      </c>
-      <c r="K17">
-        <v>72.81334536</v>
-      </c>
-      <c r="L17">
-        <v>56.80793508</v>
-      </c>
-      <c r="M17">
-        <v>56.80793508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>65.849199999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>136.66138609999999</v>
@@ -1653,22 +1500,13 @@
       <c r="J18">
         <v>88.636312529999998</v>
       </c>
-      <c r="K18">
-        <v>85.044760400000001</v>
-      </c>
-      <c r="L18">
-        <v>66.350710899999996</v>
-      </c>
-      <c r="M18">
-        <v>75.302790939999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>80.352421629999995</v>
@@ -1694,22 +1532,13 @@
       <c r="J19">
         <v>71.02928043</v>
       </c>
-      <c r="K19">
-        <v>51.26140633</v>
-      </c>
-      <c r="L19">
-        <v>64.949006979999993</v>
-      </c>
-      <c r="M19">
-        <v>62.533548039999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>153.64754619999999</v>
@@ -1735,22 +1564,13 @@
       <c r="J20">
         <v>63.621525310000003</v>
       </c>
-      <c r="K20">
-        <v>54.126918289999999</v>
-      </c>
-      <c r="L20">
-        <v>62.836997099999998</v>
-      </c>
-      <c r="M20">
-        <v>56.200746580000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>123.4704071</v>
@@ -1776,22 +1596,13 @@
       <c r="J21">
         <v>58.96354049</v>
       </c>
-      <c r="K21">
-        <v>53.222945000000003</v>
-      </c>
-      <c r="L21">
-        <v>50.561797749999997</v>
-      </c>
-      <c r="M21">
-        <v>49.37906564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>93.545385440000004</v>
@@ -1817,22 +1628,13 @@
       <c r="J22">
         <v>65.849272279999994</v>
       </c>
-      <c r="K22">
-        <v>64.523122999999998</v>
-      </c>
-      <c r="L22">
-        <v>64.523122999999998</v>
-      </c>
-      <c r="M22">
-        <v>58.857142860000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>161.69265369999999</v>
@@ -1858,22 +1660,13 @@
       <c r="J23">
         <v>60.941979410000002</v>
       </c>
-      <c r="K23">
-        <v>60.807222520000003</v>
-      </c>
-      <c r="L23">
-        <v>53.106744560000003</v>
-      </c>
-      <c r="M23">
-        <v>55.496548060000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>170.6486898</v>
@@ -1899,22 +1692,13 @@
       <c r="J24">
         <v>84.945652219999999</v>
       </c>
-      <c r="K24">
-        <v>83.690987120000003</v>
-      </c>
-      <c r="L24">
-        <v>98.712446349999993</v>
-      </c>
-      <c r="M24">
-        <v>69.449863440000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>220.52836669999999</v>
@@ -1940,22 +1724,13 @@
       <c r="J25">
         <v>67.410677530000001</v>
       </c>
-      <c r="K25">
-        <v>80.028328610000003</v>
-      </c>
-      <c r="L25">
-        <v>65.627950900000002</v>
-      </c>
-      <c r="M25">
-        <v>58.309726159999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>157.40217319999999</v>
@@ -1981,22 +1756,13 @@
       <c r="J26">
         <v>75.242511890000003</v>
       </c>
-      <c r="K26">
-        <v>61.794582390000002</v>
-      </c>
-      <c r="L26">
-        <v>73.081264110000006</v>
-      </c>
-      <c r="M26">
-        <v>62.358916479999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>172.5803311</v>
@@ -2022,63 +1788,45 @@
       <c r="J27">
         <v>69.8016425</v>
       </c>
-      <c r="K27">
-        <v>75.284090910000003</v>
-      </c>
-      <c r="L27">
-        <v>60.227272730000003</v>
-      </c>
-      <c r="M27">
-        <v>54.545454550000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>220.52836669999999</v>
+        <v>117.773</v>
       </c>
       <c r="D28">
-        <v>458.73624999999998</v>
+        <v>661.58789999999999</v>
       </c>
       <c r="E28">
-        <v>1.5920492900000001</v>
+        <v>2.61795</v>
       </c>
       <c r="F28">
-        <v>1.7864461300000001</v>
+        <v>2.8025129999999998</v>
       </c>
       <c r="G28">
-        <v>1.3818986099999999</v>
+        <v>2.8969040000000001</v>
       </c>
       <c r="H28">
-        <v>94.906603610000005</v>
+        <v>85.707018000000005</v>
       </c>
       <c r="I28">
-        <v>81.900810120000003</v>
+        <v>78.628860000000003</v>
       </c>
       <c r="J28">
-        <v>67.410677530000001</v>
-      </c>
-      <c r="K28">
-        <v>80.028328610000003</v>
-      </c>
-      <c r="L28">
-        <v>65.627950900000002</v>
-      </c>
-      <c r="M28">
-        <v>58.309726159999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>66.129790200000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>128.30451959999999</v>
@@ -2104,22 +1852,13 @@
       <c r="J29">
         <v>84.451950920000002</v>
       </c>
-      <c r="K29">
-        <v>70.354780520000006</v>
-      </c>
-      <c r="L29">
-        <v>67.949488880000004</v>
-      </c>
-      <c r="M29">
-        <v>73.662056519999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>65.247857620000005</v>
@@ -2145,22 +1884,13 @@
       <c r="J30">
         <v>75.802212179999998</v>
       </c>
-      <c r="K30">
-        <v>66.528066530000004</v>
-      </c>
-      <c r="L30">
-        <v>76.92307692</v>
-      </c>
-      <c r="M30">
-        <v>67.047817050000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>150.64462520000001</v>
@@ -2186,22 +1916,13 @@
       <c r="J31">
         <v>66.001857790000003</v>
       </c>
-      <c r="K31">
-        <v>60.439560440000001</v>
-      </c>
-      <c r="L31">
-        <v>68.351648350000005</v>
-      </c>
-      <c r="M31">
-        <v>60.219780219999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>121.0874824</v>
@@ -2227,22 +1948,13 @@
       <c r="J32">
         <v>61.494874879999998</v>
       </c>
-      <c r="K32">
-        <v>58.674901740000003</v>
-      </c>
-      <c r="L32">
-        <v>52.498596290000002</v>
-      </c>
-      <c r="M32">
-        <v>52.217855139999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>98.515842689999999</v>
@@ -2268,22 +1980,13 @@
       <c r="J33">
         <v>66.218539899999996</v>
       </c>
-      <c r="K33">
-        <v>76.063249729999995</v>
-      </c>
-      <c r="L33">
-        <v>72.246455830000002</v>
-      </c>
-      <c r="M33">
-        <v>57.797164670000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>176.64228589999999</v>
@@ -2309,22 +2012,13 @@
       <c r="J34">
         <v>61.830799200000001</v>
       </c>
-      <c r="K34">
-        <v>65.407772300000005</v>
-      </c>
-      <c r="L34">
-        <v>52.545155989999998</v>
-      </c>
-      <c r="M34">
-        <v>53.913519430000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35">
         <v>161.356054</v>
@@ -2350,22 +2044,13 @@
       <c r="J35">
         <v>83.51889104</v>
       </c>
-      <c r="K35">
-        <v>86.036392410000005</v>
-      </c>
-      <c r="L35">
-        <v>94.541139240000007</v>
-      </c>
-      <c r="M35">
-        <v>67.840189870000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <v>212.63996689999999</v>
@@ -2391,22 +2076,13 @@
       <c r="J36">
         <v>64.221031370000006</v>
       </c>
-      <c r="K36">
-        <v>77.10790738</v>
-      </c>
-      <c r="L36">
-        <v>61.380515510000002</v>
-      </c>
-      <c r="M36">
-        <v>59.633027519999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>174.02849280000001</v>
@@ -2432,22 +2108,13 @@
       <c r="J37">
         <v>69.235714729999998</v>
       </c>
-      <c r="K37">
-        <v>58.044806520000002</v>
-      </c>
-      <c r="L37">
-        <v>82.739307539999999</v>
-      </c>
-      <c r="M37">
-        <v>54.989816699999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>165.82419089999999</v>
@@ -2473,63 +2140,45 @@
       <c r="J38">
         <v>69.947257250000007</v>
       </c>
-      <c r="K38">
-        <v>67.069660330000005</v>
-      </c>
-      <c r="L38">
-        <v>69.084628670000001</v>
-      </c>
-      <c r="M38">
-        <v>58.434081749999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>188.93413229999999</v>
+        <v>116.60128</v>
       </c>
       <c r="D39">
-        <v>306.68514909999999</v>
+        <v>647.10428100000001</v>
       </c>
       <c r="E39">
-        <v>2.5672705300000001</v>
+        <v>2.5696189999999999</v>
       </c>
       <c r="F39">
-        <v>3.0991618700000001</v>
+        <v>2.8909159999999998</v>
       </c>
       <c r="G39">
-        <v>2.03915895</v>
+        <v>3.0233143999999998</v>
       </c>
       <c r="H39">
-        <v>71.461702750000001</v>
+        <v>86.187200000000004</v>
       </c>
       <c r="I39">
-        <v>59.342768110000002</v>
+        <v>76.937200000000004</v>
       </c>
       <c r="J39">
-        <v>61.294490889999999</v>
-      </c>
-      <c r="K39">
-        <v>60.655737700000003</v>
-      </c>
-      <c r="L39">
-        <v>54.3715847</v>
-      </c>
-      <c r="M39">
-        <v>55.737704919999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>66.650189999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>212.63996689999999</v>
@@ -2555,22 +2204,13 @@
       <c r="J40">
         <v>64.221031370000006</v>
       </c>
-      <c r="K40">
-        <v>77.10790738</v>
-      </c>
-      <c r="L40">
-        <v>61.380515510000002</v>
-      </c>
-      <c r="M40">
-        <v>59.633027519999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>73.169203479999993</v>
@@ -2596,22 +2236,13 @@
       <c r="J41">
         <v>72.565871369999996</v>
       </c>
-      <c r="K41">
-        <v>59.065228560000001</v>
-      </c>
-      <c r="L41">
-        <v>71.391884950000005</v>
-      </c>
-      <c r="M41">
-        <v>61.633281969999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>155.8183884</v>
@@ -2637,22 +2268,13 @@
       <c r="J42">
         <v>65.990166639999998</v>
       </c>
-      <c r="K42">
-        <v>62.217659140000002</v>
-      </c>
-      <c r="L42">
-        <v>71.252566740000006</v>
-      </c>
-      <c r="M42">
-        <v>59.548254620000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>118.48888119999999</v>
@@ -2678,22 +2300,13 @@
       <c r="J43">
         <v>60.909888960000004</v>
       </c>
-      <c r="K43">
-        <v>58.255107680000002</v>
-      </c>
-      <c r="L43">
-        <v>54.113749310000003</v>
-      </c>
-      <c r="M43">
-        <v>54.389839870000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>97.734188059999994</v>
@@ -2719,22 +2332,13 @@
       <c r="J44">
         <v>66.748170250000001</v>
       </c>
-      <c r="K44">
-        <v>75.466365179999997</v>
-      </c>
-      <c r="L44">
-        <v>68.682871680000005</v>
-      </c>
-      <c r="M44">
-        <v>60.486150369999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>128.36527079999999</v>
@@ -2760,22 +2364,13 @@
       <c r="J45">
         <v>87.638937639999995</v>
       </c>
-      <c r="K45">
-        <v>73.878627969999997</v>
-      </c>
-      <c r="L45">
-        <v>75.989445910000001</v>
-      </c>
-      <c r="M45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>172.1398178</v>
@@ -2801,22 +2396,13 @@
       <c r="J46">
         <v>83.531110249999998</v>
       </c>
-      <c r="K46">
-        <v>88.283289819999993</v>
-      </c>
-      <c r="L46">
-        <v>96.768929499999999</v>
-      </c>
-      <c r="M46">
-        <v>66.253263709999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>212.87610649999999</v>
@@ -2842,22 +2428,13 @@
       <c r="J47">
         <v>65.604915199999994</v>
       </c>
-      <c r="K47">
-        <v>83.260105449999998</v>
-      </c>
-      <c r="L47">
-        <v>63.927943759999998</v>
-      </c>
-      <c r="M47">
-        <v>54.481546569999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <v>179.92305469999999</v>
@@ -2883,22 +2460,13 @@
       <c r="J48">
         <v>72.825456090000003</v>
       </c>
-      <c r="K48">
-        <v>59.50305144</v>
-      </c>
-      <c r="L48">
-        <v>73.452484740000003</v>
-      </c>
-      <c r="M48">
-        <v>59.06713165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C49">
         <v>160.8279364</v>
@@ -2924,63 +2492,45 @@
       <c r="J49">
         <v>73.190121480000002</v>
       </c>
-      <c r="K49">
-        <v>72.607260729999993</v>
-      </c>
-      <c r="L49">
-        <v>66.831683170000005</v>
-      </c>
-      <c r="M49">
-        <v>57.205720569999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>212.87610649999999</v>
+        <v>113.25248999999999</v>
       </c>
       <c r="D50">
-        <v>561.8135853</v>
+        <v>687.14979900000003</v>
       </c>
       <c r="E50">
-        <v>1.5940487000000001</v>
+        <v>2.6093860000000002</v>
       </c>
       <c r="F50">
-        <v>1.76787837</v>
+        <v>2.986866</v>
       </c>
       <c r="G50">
-        <v>1.3565836600000001</v>
+        <v>2.9538850000000001</v>
       </c>
       <c r="H50">
-        <v>97.180942509999994</v>
+        <v>85.312619999999995</v>
       </c>
       <c r="I50">
-        <v>84.042724680000006</v>
+        <v>77.272715000000005</v>
       </c>
       <c r="J50">
-        <v>65.604915199999994</v>
-      </c>
-      <c r="K50">
-        <v>83.260105449999998</v>
-      </c>
-      <c r="L50">
-        <v>63.927943759999998</v>
-      </c>
-      <c r="M50">
-        <v>54.481546569999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>66.448560999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>131.17398710000001</v>
@@ -3006,22 +2556,13 @@
       <c r="J51">
         <v>83.817649029999998</v>
       </c>
-      <c r="K51">
-        <v>74.787535410000004</v>
-      </c>
-      <c r="L51">
-        <v>73.0878187</v>
-      </c>
-      <c r="M51">
-        <v>72.52124646</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>64.870743700000006</v>
@@ -3047,22 +2588,13 @@
       <c r="J52">
         <v>77.812717199999994</v>
       </c>
-      <c r="K52">
-        <v>66.080544529999997</v>
-      </c>
-      <c r="L52">
-        <v>76.574021549999998</v>
-      </c>
-      <c r="M52">
-        <v>71.469086779999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>145.99996110000001</v>
@@ -3088,22 +2620,13 @@
       <c r="J53">
         <v>67.168105580000002</v>
       </c>
-      <c r="K53">
-        <v>61.019222169999999</v>
-      </c>
-      <c r="L53">
-        <v>67.501117570000005</v>
-      </c>
-      <c r="M53">
-        <v>60.34868127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>121.7320809</v>
@@ -3129,22 +2652,13 @@
       <c r="J54">
         <v>62.207819860000001</v>
       </c>
-      <c r="K54">
-        <v>56.174334139999999</v>
-      </c>
-      <c r="L54">
-        <v>51.089588380000002</v>
-      </c>
-      <c r="M54">
-        <v>54.237288139999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C55">
         <v>94.834998440000007</v>
@@ -3170,22 +2684,13 @@
       <c r="J55">
         <v>66.465010829999997</v>
       </c>
-      <c r="K55">
-        <v>72.662601629999997</v>
-      </c>
-      <c r="L55">
-        <v>69.359756099999998</v>
-      </c>
-      <c r="M55">
-        <v>58.943089430000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>173.44853079999999</v>
@@ -3210,15 +2715,6 @@
       </c>
       <c r="J56">
         <v>61.294556630000002</v>
-      </c>
-      <c r="K56">
-        <v>63.875469670000001</v>
-      </c>
-      <c r="L56">
-        <v>51.529790660000003</v>
-      </c>
-      <c r="M56">
-        <v>53.408480939999997</v>
       </c>
     </row>
   </sheetData>
